--- a/mcmaster_excel/Steel_Binding_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Steel_Binding_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,119 +434,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.235"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>90277A105</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$19.03</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -581,12 +551,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>90277A106</t>
+          <t>90277A105</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>$19.03</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,7 +573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -638,12 +608,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>90277A107</t>
+          <t>90277A106</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -660,7 +630,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -695,12 +665,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90277A108</t>
+          <t>90277A107</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +687,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -752,12 +722,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90277A110</t>
+          <t>90277A108</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -774,7 +744,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -809,12 +779,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90277A112</t>
+          <t>90277A110</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -831,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -841,12 +811,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.290"</t>
+          <t>0.235"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -866,17 +836,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>90277A142</t>
+          <t>90277A112</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -888,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -923,12 +893,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>90277A143</t>
+          <t>90277A142</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -945,7 +915,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -980,12 +950,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90277A144</t>
+          <t>90277A143</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1002,7 +972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1037,12 +1007,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90277A145</t>
+          <t>90277A144</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1059,7 +1029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1094,12 +1064,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90277A146</t>
+          <t>90277A145</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1116,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1151,12 +1121,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90277A147</t>
+          <t>90277A146</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1173,7 +1143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1208,12 +1178,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90277A148</t>
+          <t>90277A147</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1230,7 +1200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1265,12 +1235,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90277A150</t>
+          <t>90277A148</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1287,7 +1257,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1322,12 +1292,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>90277A151</t>
+          <t>90277A150</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1344,7 +1314,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1379,12 +1349,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90277A153</t>
+          <t>90277A151</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1401,7 +1371,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1436,12 +1406,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90277A155</t>
+          <t>90277A153</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17.56</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1458,7 +1428,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1468,12 +1438,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.344"</t>
+          <t>0.290"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.105"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1493,17 +1463,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90277A190</t>
+          <t>90277A155</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1515,7 +1485,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1550,12 +1520,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90277A191</t>
+          <t>90277A190</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14.70</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1572,7 +1542,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1607,12 +1577,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90277A192</t>
+          <t>90277A191</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>14.70</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1629,7 +1599,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1664,12 +1634,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90277A194</t>
+          <t>90277A192</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1686,7 +1656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1721,12 +1691,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90277A196</t>
+          <t>90277A194</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1743,7 +1713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1778,12 +1748,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>90277A197</t>
+          <t>90277A196</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1800,7 +1770,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1835,12 +1805,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90277A199</t>
+          <t>90277A197</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1857,7 +1827,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1867,12 +1837,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.399"</t>
+          <t>0.344"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.123"</t>
+          <t>0.105"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1892,17 +1862,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90277A242</t>
+          <t>90277A199</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1914,7 +1884,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1949,12 +1919,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90277A245</t>
+          <t>90277A242</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1971,7 +1941,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2006,17 +1976,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90277A825</t>
+          <t>90277A245</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2028,7 +1998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2063,12 +2033,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90277A827</t>
+          <t>90277A825</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2085,7 +2055,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2120,12 +2090,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90277A829</t>
+          <t>90277A827</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>20.36</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2142,7 +2112,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2177,12 +2147,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90277A830</t>
+          <t>90277A829</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2199,7 +2169,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2234,12 +2204,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>90277A831</t>
+          <t>90277A830</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2256,7 +2226,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2266,12 +2236,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.525"</t>
+          <t>0.399"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.164"</t>
+          <t>0.123"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2291,17 +2261,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90277A210</t>
+          <t>90277A831</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2313,55 +2283,112 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.525"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.164"</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>90277A210</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.525"</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.164"</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>90277A216</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>21.10</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
